--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_1_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_1_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="3"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Strain</t>
   </si>
   <si>
-    <t>Deletion</t>
-  </si>
-  <si>
     <t>wt</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>production_rate</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Sigmoid</t>
   </si>
   <si>
@@ -150,6 +144,12 @@
   </si>
   <si>
     <t>dcin5 SSE</t>
+  </si>
+  <si>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -159,7 +159,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -184,6 +184,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -206,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -231,6 +236,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,10 +656,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -807,7 +813,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1162,7 +1168,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1262,7 +1268,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1362,7 +1368,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1462,15 +1468,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>1.0116368040068659E-2</v>
@@ -1478,7 +1484,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>6.9329810019760921E-2</v>
@@ -1486,7 +1492,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1494,7 +1500,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>191</v>
@@ -1502,18 +1508,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1582,10 +1588,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1708,7 +1714,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1952,7 +1958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
@@ -1960,7 +1966,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2249,7 +2255,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2371,7 +2377,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2495,8 +2501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2504,27 +2510,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2532,7 +2526,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2540,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2548,7 +2542,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2556,7 +2550,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2564,7 +2558,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2572,99 +2566,96 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>27</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B14" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C14">
+        <v>0.8</v>
+      </c>
+      <c r="D14">
+        <v>1.2</v>
+      </c>
+      <c r="E14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="C13">
-        <v>0.8</v>
-      </c>
-      <c r="D13">
-        <v>1.2</v>
-      </c>
-      <c r="E13">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="B16" s="7">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2750,10 +2741,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2812,7 +2803,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_1_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_1_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\perturbation_tests\to_be_reformatted\math_L-curve\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="6"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
   <si>
     <t>CIN5</t>
   </si>
@@ -78,9 +83,6 @@
   </si>
   <si>
     <t>fix_b</t>
-  </si>
-  <si>
-    <t>Sheet</t>
   </si>
   <si>
     <t>dcin5</t>
@@ -155,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -211,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -219,7 +221,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -240,7 +241,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -315,6 +316,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -641,31 +645,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -674,7 +678,7 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -683,7 +687,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -693,7 +697,7 @@
       <c r="D4" s="5"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -703,94 +707,94 @@
       <c r="D5" s="5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="4"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="4"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="4"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="4"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="4"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="4"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="4"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="4"/>
       <c r="D13" s="5"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="4"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="4"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="4"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="4"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19" s="4"/>
       <c r="D19" s="5"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20" s="4"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
       <c r="G22"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D24" s="5"/>
     </row>
   </sheetData>
@@ -802,18 +806,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -879,7 +883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -947,7 +951,7 @@
         <v>-1.4862005986512081</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1015,7 +1019,7 @@
         <v>-0.77661514458710668</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1157,18 +1161,18 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1183,7 +1187,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1200,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1217,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1234,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1257,18 +1261,18 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1283,7 +1287,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1300,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1317,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1357,18 +1361,18 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1383,7 +1387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1400,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1417,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1434,7 +1438,7 @@
         <v>0.28122076702034365</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1457,72 +1461,72 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
       </c>
       <c r="B2">
         <v>1.0116368040068659E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>6.9329810019760921E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1533,7 +1537,7 @@
         <v>6.4860360295686832E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1544,7 +1548,7 @@
         <v>2.4684333142472163E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1559,7 @@
         <v>2.7318546659654851E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1572,29 +1576,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1602,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1618,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1626,71 +1630,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
     </row>
@@ -1703,246 +1707,246 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9">
         <v>0.4</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="10">
         <v>0.4</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="11">
         <v>0.4</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="12">
         <v>0.8</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="13">
         <v>0.8</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="14">
         <v>0.8</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="15">
         <v>1.2</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="16">
         <v>1.2</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="17">
         <v>1.2</v>
       </c>
-      <c r="K1" s="19">
+      <c r="K1" s="18">
         <v>1.6</v>
       </c>
-      <c r="L1" s="20">
+      <c r="L1" s="19">
         <v>1.6</v>
       </c>
-      <c r="M1" s="21">
+      <c r="M1" s="20">
         <v>1.6</v>
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="17">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="18">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="19">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="20">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="19">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="20">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>0.26929382132237512</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.26929382132237512</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>0.26929382132237512</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>0.41593537248224854</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>0.41593537248224854</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>0.41593537248224854</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>0.49751163358969142</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <v>0.49751163358969142</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>0.49751163358969142</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <v>0.54159993841241572</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="19">
         <v>0.54159993841241572</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="20">
         <v>0.54159993841241572</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="20">
         <v>-1.1097262320569594</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F6" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I10" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F12" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="H18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
       <c r="L20" s="2"/>
     </row>
@@ -1955,266 +1959,266 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="9">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8">
         <v>0.4</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="8">
         <v>0.4</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="8">
         <v>0.4</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="8">
         <v>0.8</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="8">
         <v>0.8</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="8">
         <v>0.8</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="8">
         <v>1.2</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="8">
         <v>1.2</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="8">
         <v>1.2</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="8">
         <v>1.6</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="8">
         <v>1.6</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="8">
         <v>1.6</v>
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K7" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
       <c r="K22" s="2"/>
       <c r="M22" s="2"/>
     </row>
@@ -2226,36 +2230,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.64453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>27</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2270,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2287,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -2304,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2321,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -2347,37 +2351,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.87890625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.46875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.64453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>27</v>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2409,85 +2413,85 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>1.004</v>
       </c>
-      <c r="C2" s="23">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="23">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23">
+      <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
         <v>1.0009999999999999</v>
       </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="23">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
         <v>1.008</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="23">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0</v>
-      </c>
-      <c r="D5" s="23">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
+      <c r="D5" s="22">
         <v>1.01</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2498,19 +2502,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2518,7 +2522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2526,7 +2530,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2534,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2542,7 +2546,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2550,7 +2554,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2558,7 +2562,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2566,59 +2570,59 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>39</v>
-      </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="8">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7">
         <v>0.4</v>
       </c>
       <c r="C14">
@@ -2631,7 +2635,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2639,85 +2643,74 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
         <v>0.1</v>
       </c>
-      <c r="D17">
+      <c r="D16">
         <v>0.2</v>
       </c>
-      <c r="E17">
+      <c r="E16">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F17">
+      <c r="F16">
         <v>0.4</v>
       </c>
-      <c r="G17">
+      <c r="G16">
         <v>0.5</v>
       </c>
-      <c r="H17">
+      <c r="H16">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I17">
+      <c r="I16">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J17">
+      <c r="J16">
         <v>0.8</v>
       </c>
-      <c r="K17">
+      <c r="K16">
         <v>0.9</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N17">
+      <c r="N16">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O17">
+      <c r="O16">
         <v>1.3</v>
       </c>
-      <c r="P17">
+      <c r="P16">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q17">
+      <c r="Q16">
         <v>1.5</v>
       </c>
-      <c r="R17">
+      <c r="R16">
         <v>1.6</v>
       </c>
-      <c r="S17">
+      <c r="S16">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T17">
+      <c r="T16">
         <v>1.8</v>
       </c>
-      <c r="U17">
+      <c r="U16">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V17">
+      <c r="V16">
         <v>2</v>
       </c>
     </row>
@@ -2730,24 +2723,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>23</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2755,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2763,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2771,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2779,10 +2772,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
   </sheetData>
@@ -2792,18 +2785,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -2869,7 +2862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2937,7 +2930,7 @@
         <v>-1.4862005986512081</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3005,7 +2998,7 @@
         <v>-0.77661514458710668</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3073,7 +3066,7 @@
         <v>0.37114594463819872</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>

--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_1_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_1_output.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -891,64 +891,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.10499680114134405</v>
+        <v>-0.10499680114134401</v>
       </c>
       <c r="D2">
-        <v>-0.20720784893613309</v>
+        <v>-0.207207848936133</v>
       </c>
       <c r="E2">
-        <v>-0.30651031034730569</v>
+        <v>-0.30651031034730603</v>
       </c>
       <c r="F2">
-        <v>-0.4027897129282047</v>
+        <v>-0.40278971292820498</v>
       </c>
       <c r="G2">
-        <v>-0.49593842425359613</v>
+        <v>-0.49593842425359602</v>
       </c>
       <c r="H2">
-        <v>-0.58586071686060093</v>
+        <v>-0.58586071686060104</v>
       </c>
       <c r="I2">
-        <v>-0.6724711073559938</v>
+        <v>-0.67247110735599402</v>
       </c>
       <c r="J2">
-        <v>-0.7556989835243284</v>
+        <v>-0.75569898352432796</v>
       </c>
       <c r="K2">
-        <v>-0.83548685267835976</v>
+        <v>-0.83548685267835998</v>
       </c>
       <c r="L2">
-        <v>-0.9117943150871568</v>
+        <v>-0.91179431508715703</v>
       </c>
       <c r="M2">
-        <v>-0.98459604371715892</v>
+        <v>-0.98459604371715903</v>
       </c>
       <c r="N2">
         <v>-1.0538849363366101</v>
       </c>
       <c r="O2">
-        <v>-1.119669710625546</v>
+        <v>-1.11966971062555</v>
       </c>
       <c r="P2">
-        <v>-1.1819771561154517</v>
+        <v>-1.18197715611545</v>
       </c>
       <c r="Q2">
-        <v>-1.2408493216608585</v>
+        <v>-1.24084932166086</v>
       </c>
       <c r="R2">
-        <v>-1.2963448974934371</v>
+        <v>-1.29634489749344</v>
       </c>
       <c r="S2">
-        <v>-1.3485360714575068</v>
+        <v>-1.3485360714575101</v>
       </c>
       <c r="T2">
-        <v>-1.3975091727102575</v>
+        <v>-1.39750917271026</v>
       </c>
       <c r="U2">
-        <v>-1.4433613515809292</v>
+        <v>-1.44336135158093</v>
       </c>
       <c r="V2">
-        <v>-1.4862005986512081</v>
+        <v>-1.4862005986512099</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -959,64 +959,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.6437838926840631E-2</v>
+        <v>-6.6437838926840603E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12948725429815433</v>
+        <v>-0.129487254298154</v>
       </c>
       <c r="E3">
-        <v>-0.18918102408759441</v>
+        <v>-0.18918102408759399</v>
       </c>
       <c r="F3">
-        <v>-0.24556785743665169</v>
+        <v>-0.24556785743665199</v>
       </c>
       <c r="G3">
-        <v>-0.29870970331933355</v>
+        <v>-0.298709703319334</v>
       </c>
       <c r="H3">
-        <v>-0.34868250150286834</v>
+        <v>-0.348682501502868</v>
       </c>
       <c r="I3">
-        <v>-0.39557313990100312</v>
+        <v>-0.39557313990100301</v>
       </c>
       <c r="J3">
-        <v>-0.43947966166282026</v>
+        <v>-0.43947966166281999</v>
       </c>
       <c r="K3">
-        <v>-0.48050818719138488</v>
+        <v>-0.48050818719138499</v>
       </c>
       <c r="L3">
-        <v>-0.51877277630064256</v>
+        <v>-0.518772776300643</v>
       </c>
       <c r="M3">
-        <v>-0.5543924888410543</v>
+        <v>-0.55439248884105397</v>
       </c>
       <c r="N3">
-        <v>-0.58749109269399247</v>
+        <v>-0.58749109269399202</v>
       </c>
       <c r="O3">
-        <v>-0.61819440817155125</v>
+        <v>-0.61819440817155102</v>
       </c>
       <c r="P3">
-        <v>-0.64663001510546536</v>
+        <v>-0.64663001510546503</v>
       </c>
       <c r="Q3">
-        <v>-0.67292497708064236</v>
+        <v>-0.67292497708064203</v>
       </c>
       <c r="R3">
-        <v>-0.69720564927320228</v>
+        <v>-0.69720564927320205</v>
       </c>
       <c r="S3">
-        <v>-0.7195958244974785</v>
+        <v>-0.71959582449747805</v>
       </c>
       <c r="T3">
-        <v>-0.74021669209143426</v>
+        <v>-0.74021669209143404</v>
       </c>
       <c r="U3">
-        <v>-0.75918540073754714</v>
+        <v>-0.75918540073754703</v>
       </c>
       <c r="V3">
-        <v>-0.77661514458710668</v>
+        <v>-0.77661514458710701</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1098,61 +1098,61 @@
         <v>-6.5317686884939705E-2</v>
       </c>
       <c r="D5">
-        <v>-0.12730622420547094</v>
+        <v>-0.127306224205471</v>
       </c>
       <c r="E5">
-        <v>-0.18600011036463399</v>
+        <v>-0.18600011036463401</v>
       </c>
       <c r="F5">
-        <v>-0.24144911754276149</v>
+        <v>-0.24144911754276099</v>
       </c>
       <c r="G5">
-        <v>-0.29371569223236316</v>
+        <v>-0.29371569223236299</v>
       </c>
       <c r="H5">
-        <v>-0.3428756281546278</v>
+        <v>-0.34287562815462802</v>
       </c>
       <c r="I5">
-        <v>-0.38901514295466061</v>
+        <v>-0.389015142954661</v>
       </c>
       <c r="J5">
-        <v>-0.4322310461676831</v>
+        <v>-0.43223104616768299</v>
       </c>
       <c r="K5">
-        <v>-0.47262779275896638</v>
+        <v>-0.47262779275896599</v>
       </c>
       <c r="L5">
-        <v>-0.51031733469511609</v>
+        <v>-0.51031733469511598</v>
       </c>
       <c r="M5">
-        <v>-0.54541631481732744</v>
+        <v>-0.545416314817327</v>
       </c>
       <c r="N5">
         <v>-0.57804578081398506</v>
       </c>
       <c r="O5">
-        <v>-0.60832865445372786</v>
+        <v>-0.60832865445372797</v>
       </c>
       <c r="P5">
-        <v>-0.63638945048538487</v>
+        <v>-0.63638945048538498</v>
       </c>
       <c r="Q5">
-        <v>-0.66235210967831681</v>
+        <v>-0.66235210967831704</v>
       </c>
       <c r="R5">
-        <v>-0.68633981654893794</v>
+        <v>-0.68633981654893805</v>
       </c>
       <c r="S5">
-        <v>-0.70847323406799489</v>
+        <v>-0.70847323406799501</v>
       </c>
       <c r="T5">
-        <v>-0.7288704662031309</v>
+        <v>-0.72887046620313101</v>
       </c>
       <c r="U5">
-        <v>-0.7476456884567616</v>
+        <v>-0.74764568845676205</v>
       </c>
       <c r="V5">
-        <v>-0.76490923148693968</v>
+        <v>-0.76490923148694001</v>
       </c>
     </row>
   </sheetData>
@@ -1192,10 +1192,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1292,10 +1292,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.10292276543278124</v>
+        <v>0.102922765432781</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1108920147899017</v>
+        <v>0.110892014789902</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.43412222889076013</v>
+        <v>0.43412222889076002</v>
       </c>
       <c r="E4">
-        <v>0.28122076702034365</v>
+        <v>0.28122076702034399</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1449,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.32423254717519595</v>
+        <v>-0.32423254717519601</v>
       </c>
       <c r="E5">
-        <v>0.14288019968408103</v>
+        <v>0.142880199684081</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +1483,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>1.0116368040068659E-2</v>
+        <v>1.0116368040068701E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1491,7 +1491,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>6.9329810019760921E-2</v>
+        <v>6.9329810019760907E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1499,7 +1499,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1.2133358649639586E-33</v>
+        <v>1.2133358649639599E-33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1531,10 +1531,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>3.2430180147843416E-3</v>
+        <v>3.2430180147843398E-3</v>
       </c>
       <c r="C8">
-        <v>6.4860360295686832E-3</v>
+        <v>6.4860360295686797E-3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1542,10 +1542,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>1.2342166571236081E-3</v>
+        <v>1.2342166571236101E-3</v>
       </c>
       <c r="C9">
-        <v>2.4684333142472163E-3</v>
+        <v>2.4684333142472202E-3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1553,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>2.7318546659654851E-2</v>
+        <v>2.7318546659654899E-2</v>
       </c>
       <c r="C10">
-        <v>2.7318546659654851E-2</v>
+        <v>2.7318546659654899E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1564,10 +1564,10 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>1.7730477951985856E-2</v>
+        <v>1.7730477951985901E-2</v>
       </c>
       <c r="C11">
-        <v>6.0844117181188387E-2</v>
+        <v>6.0844117181188401E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1763,40 +1763,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="10">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="11">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="12">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="13">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="14">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="15">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="16">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="17">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="18">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="19">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="20">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1804,40 +1804,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="10">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="11">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="12">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="13">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="14">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="15">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="16">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="17">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="18">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="19">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="20">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1845,40 +1845,40 @@
         <v>0</v>
       </c>
       <c r="B4" s="9">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="C4" s="10">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="D4" s="11">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="E4" s="12">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="F4" s="13">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="G4" s="14">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="H4" s="15">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="I4" s="16">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="J4" s="17">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="K4" s="18">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="L4" s="19">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="M4" s="20">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1886,40 +1886,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="C5" s="10">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="D5" s="11">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="E5" s="12">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="F5" s="13">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="G5" s="14">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="H5" s="15">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="I5" s="16">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="J5" s="17">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="K5" s="18">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="L5" s="19">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="M5" s="20">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2015,40 +2015,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2056,40 +2056,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2138,40 +2138,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="C5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="D5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="E5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="F5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="G5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="H5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="I5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="K5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="L5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="M5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2660,7 +2660,7 @@
         <v>0.2</v>
       </c>
       <c r="E16">
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F16">
         <v>0.4</v>
@@ -2669,10 +2669,10 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="I16">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="J16">
         <v>0.8</v>
@@ -2687,13 +2687,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O16">
         <v>1.3</v>
       </c>
       <c r="P16">
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Q16">
         <v>1.5</v>
@@ -2702,13 +2702,13 @@
         <v>1.6</v>
       </c>
       <c r="S16">
-        <v>1.7000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="T16">
         <v>1.8</v>
       </c>
       <c r="U16">
-        <v>1.9000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
         <v>2</v>
@@ -2870,64 +2870,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.10499680114134405</v>
+        <v>-0.10499680114134401</v>
       </c>
       <c r="D2">
-        <v>-0.20720784893613309</v>
+        <v>-0.207207848936133</v>
       </c>
       <c r="E2">
-        <v>-0.30651031034730569</v>
+        <v>-0.30651031034730603</v>
       </c>
       <c r="F2">
-        <v>-0.4027897129282047</v>
+        <v>-0.40278971292820498</v>
       </c>
       <c r="G2">
-        <v>-0.49593842425359613</v>
+        <v>-0.49593842425359602</v>
       </c>
       <c r="H2">
-        <v>-0.58586071686060093</v>
+        <v>-0.58586071686060104</v>
       </c>
       <c r="I2">
-        <v>-0.6724711073559938</v>
+        <v>-0.67247110735599402</v>
       </c>
       <c r="J2">
-        <v>-0.7556989835243284</v>
+        <v>-0.75569898352432796</v>
       </c>
       <c r="K2">
-        <v>-0.83548685267835976</v>
+        <v>-0.83548685267835998</v>
       </c>
       <c r="L2">
-        <v>-0.9117943150871568</v>
+        <v>-0.91179431508715703</v>
       </c>
       <c r="M2">
-        <v>-0.98459604371715892</v>
+        <v>-0.98459604371715903</v>
       </c>
       <c r="N2">
         <v>-1.0538849363366101</v>
       </c>
       <c r="O2">
-        <v>-1.119669710625546</v>
+        <v>-1.11966971062555</v>
       </c>
       <c r="P2">
-        <v>-1.1819771561154517</v>
+        <v>-1.18197715611545</v>
       </c>
       <c r="Q2">
-        <v>-1.2408493216608585</v>
+        <v>-1.24084932166086</v>
       </c>
       <c r="R2">
-        <v>-1.2963448974934371</v>
+        <v>-1.29634489749344</v>
       </c>
       <c r="S2">
-        <v>-1.3485360714575068</v>
+        <v>-1.3485360714575101</v>
       </c>
       <c r="T2">
-        <v>-1.3975091727102575</v>
+        <v>-1.39750917271026</v>
       </c>
       <c r="U2">
-        <v>-1.4433613515809292</v>
+        <v>-1.44336135158093</v>
       </c>
       <c r="V2">
-        <v>-1.4862005986512081</v>
+        <v>-1.4862005986512099</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2938,64 +2938,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.6437838926840631E-2</v>
+        <v>-6.6437838926840603E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12948725429815433</v>
+        <v>-0.129487254298154</v>
       </c>
       <c r="E3">
-        <v>-0.18918102408759441</v>
+        <v>-0.18918102408759399</v>
       </c>
       <c r="F3">
-        <v>-0.24556785743665169</v>
+        <v>-0.24556785743665199</v>
       </c>
       <c r="G3">
-        <v>-0.29870970331933355</v>
+        <v>-0.298709703319334</v>
       </c>
       <c r="H3">
-        <v>-0.34868250150286834</v>
+        <v>-0.348682501502868</v>
       </c>
       <c r="I3">
-        <v>-0.39557313990100312</v>
+        <v>-0.39557313990100301</v>
       </c>
       <c r="J3">
-        <v>-0.43947966166282026</v>
+        <v>-0.43947966166281999</v>
       </c>
       <c r="K3">
-        <v>-0.48050818719138488</v>
+        <v>-0.48050818719138499</v>
       </c>
       <c r="L3">
-        <v>-0.51877277630064256</v>
+        <v>-0.518772776300643</v>
       </c>
       <c r="M3">
-        <v>-0.5543924888410543</v>
+        <v>-0.55439248884105397</v>
       </c>
       <c r="N3">
-        <v>-0.58749109269399247</v>
+        <v>-0.58749109269399202</v>
       </c>
       <c r="O3">
-        <v>-0.61819440817155125</v>
+        <v>-0.61819440817155102</v>
       </c>
       <c r="P3">
-        <v>-0.64663001510546536</v>
+        <v>-0.64663001510546503</v>
       </c>
       <c r="Q3">
-        <v>-0.67292497708064236</v>
+        <v>-0.67292497708064203</v>
       </c>
       <c r="R3">
-        <v>-0.69720564927320228</v>
+        <v>-0.69720564927320205</v>
       </c>
       <c r="S3">
-        <v>-0.7195958244974785</v>
+        <v>-0.71959582449747805</v>
       </c>
       <c r="T3">
-        <v>-0.74021669209143426</v>
+        <v>-0.74021669209143404</v>
       </c>
       <c r="U3">
-        <v>-0.75918540073754714</v>
+        <v>-0.75918540073754703</v>
       </c>
       <c r="V3">
-        <v>-0.77661514458710668</v>
+        <v>-0.77661514458710701</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -3006,64 +3006,64 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.6346021098799928E-2</v>
+        <v>4.63460210987999E-2</v>
       </c>
       <c r="D4">
-        <v>8.7006324589081308E-2</v>
+        <v>8.7006324589081294E-2</v>
       </c>
       <c r="E4">
-        <v>0.1228020996457404</v>
+        <v>0.12280209964574</v>
       </c>
       <c r="F4">
-        <v>0.15440853337386484</v>
+        <v>0.15440853337386501</v>
       </c>
       <c r="G4">
-        <v>0.18238587913106419</v>
+        <v>0.18238587913106399</v>
       </c>
       <c r="H4">
-        <v>0.20720436606925041</v>
+        <v>0.20720436606925</v>
       </c>
       <c r="I4">
-        <v>0.22926112057175885</v>
+        <v>0.22926112057175899</v>
       </c>
       <c r="J4">
-        <v>0.24889472875504526</v>
+        <v>0.24889472875504501</v>
       </c>
       <c r="K4">
-        <v>0.26639505629069371</v>
+        <v>0.26639505629069399</v>
       </c>
       <c r="L4">
-        <v>0.28201227761217529</v>
+        <v>0.28201227761217501</v>
       </c>
       <c r="M4">
-        <v>0.29596285635365738</v>
+        <v>0.29596285635365699</v>
       </c>
       <c r="N4">
-        <v>0.30843541906345406</v>
+        <v>0.30843541906345401</v>
       </c>
       <c r="O4">
-        <v>0.31959454590144643</v>
+        <v>0.31959454590144598</v>
       </c>
       <c r="P4">
-        <v>0.32958474622781209</v>
+        <v>0.32958474622781198</v>
       </c>
       <c r="Q4">
         <v>0.33853294407027701</v>
       </c>
       <c r="R4">
-        <v>0.34655125927695807</v>
+        <v>0.34655125927695801</v>
       </c>
       <c r="S4">
-        <v>0.3537386855039748</v>
+        <v>0.35373868550397503</v>
       </c>
       <c r="T4">
-        <v>0.36018309016758654</v>
+        <v>0.36018309016758698</v>
       </c>
       <c r="U4">
-        <v>0.36596237665265818</v>
+        <v>0.36596237665265802</v>
       </c>
       <c r="V4">
-        <v>0.37114594463819872</v>
+        <v>0.371145944638199</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -3074,64 +3074,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-7.7198644113940437E-2</v>
+        <v>-7.7198644113940396E-2</v>
       </c>
       <c r="D5">
-        <v>-0.15144749120862552</v>
+        <v>-0.151447491208626</v>
       </c>
       <c r="E5">
-        <v>-0.22270776061202222</v>
+        <v>-0.22270776061202199</v>
       </c>
       <c r="F5">
-        <v>-0.29095387354581909</v>
+        <v>-0.29095387354581898</v>
       </c>
       <c r="G5">
-        <v>-0.35617226338517016</v>
+        <v>-0.35617226338517</v>
       </c>
       <c r="H5">
-        <v>-0.41836325216185655</v>
+        <v>-0.41836325216185699</v>
       </c>
       <c r="I5">
-        <v>-0.47753943214218847</v>
+        <v>-0.47753943214218803</v>
       </c>
       <c r="J5">
-        <v>-0.53372695620191957</v>
+        <v>-0.53372695620192001</v>
       </c>
       <c r="K5">
-        <v>-0.58696362418728965</v>
+        <v>-0.58696362418728998</v>
       </c>
       <c r="L5">
-        <v>-0.63729962387672812</v>
+        <v>-0.63729962387672801</v>
       </c>
       <c r="M5">
-        <v>-0.68479538668556383</v>
+        <v>-0.68479538668556394</v>
       </c>
       <c r="N5">
-        <v>-0.72952187117122247</v>
+        <v>-0.72952187117122202</v>
       </c>
       <c r="O5">
-        <v>-0.77155829430177014</v>
+        <v>-0.77155829430177003</v>
       </c>
       <c r="P5">
-        <v>-0.81099208502447273</v>
+        <v>-0.81099208502447295</v>
       </c>
       <c r="Q5">
-        <v>-0.84791661613563407</v>
+        <v>-0.84791661613563396</v>
       </c>
       <c r="R5">
-        <v>-0.88243096588399994</v>
+        <v>-0.88243096588400005</v>
       </c>
       <c r="S5">
-        <v>-0.91463777010231506</v>
+        <v>-0.91463777010231495</v>
       </c>
       <c r="T5">
-        <v>-0.94464291716799031</v>
+        <v>-0.94464291716798998</v>
       </c>
       <c r="U5">
-        <v>-0.97255361571344512</v>
+        <v>-0.97255361571344501</v>
       </c>
       <c r="V5">
-        <v>-0.9984780819587552</v>
+        <v>-0.99847808195875498</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_1_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_1_output.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\perturbation_tests\to_be_reformatted\math_L-curve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\old_grnmap\GRNmap\GRNmap-7d\test_files\perturbation_tests\to_be_reformatted\math_L-curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,12 +30,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
   <si>
     <t>CIN5</t>
   </si>
@@ -891,64 +891,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.10499680114134401</v>
+        <v>-0.10499680114134405</v>
       </c>
       <c r="D2">
-        <v>-0.207207848936133</v>
+        <v>-0.20720784893613309</v>
       </c>
       <c r="E2">
-        <v>-0.30651031034730603</v>
+        <v>-0.30651031034730569</v>
       </c>
       <c r="F2">
-        <v>-0.40278971292820498</v>
+        <v>-0.4027897129282047</v>
       </c>
       <c r="G2">
-        <v>-0.49593842425359602</v>
+        <v>-0.49593842425359613</v>
       </c>
       <c r="H2">
-        <v>-0.58586071686060104</v>
+        <v>-0.58586071686060093</v>
       </c>
       <c r="I2">
-        <v>-0.67247110735599402</v>
+        <v>-0.6724711073559938</v>
       </c>
       <c r="J2">
-        <v>-0.75569898352432796</v>
+        <v>-0.7556989835243284</v>
       </c>
       <c r="K2">
-        <v>-0.83548685267835998</v>
+        <v>-0.83548685267835976</v>
       </c>
       <c r="L2">
-        <v>-0.91179431508715703</v>
+        <v>-0.9117943150871568</v>
       </c>
       <c r="M2">
-        <v>-0.98459604371715903</v>
+        <v>-0.98459604371715892</v>
       </c>
       <c r="N2">
         <v>-1.0538849363366101</v>
       </c>
       <c r="O2">
-        <v>-1.11966971062555</v>
+        <v>-1.119669710625546</v>
       </c>
       <c r="P2">
-        <v>-1.18197715611545</v>
+        <v>-1.1819771561154517</v>
       </c>
       <c r="Q2">
-        <v>-1.24084932166086</v>
+        <v>-1.2408493216608585</v>
       </c>
       <c r="R2">
-        <v>-1.29634489749344</v>
+        <v>-1.2963448974934371</v>
       </c>
       <c r="S2">
-        <v>-1.3485360714575101</v>
+        <v>-1.3485360714575068</v>
       </c>
       <c r="T2">
-        <v>-1.39750917271026</v>
+        <v>-1.3975091727102575</v>
       </c>
       <c r="U2">
-        <v>-1.44336135158093</v>
+        <v>-1.4433613515809292</v>
       </c>
       <c r="V2">
-        <v>-1.4862005986512099</v>
+        <v>-1.4862005986512081</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -959,64 +959,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.6437838926840603E-2</v>
+        <v>-6.6437838926840631E-2</v>
       </c>
       <c r="D3">
-        <v>-0.129487254298154</v>
+        <v>-0.12948725429815433</v>
       </c>
       <c r="E3">
-        <v>-0.18918102408759399</v>
+        <v>-0.18918102408759441</v>
       </c>
       <c r="F3">
-        <v>-0.24556785743665199</v>
+        <v>-0.24556785743665169</v>
       </c>
       <c r="G3">
-        <v>-0.298709703319334</v>
+        <v>-0.29870970331933355</v>
       </c>
       <c r="H3">
-        <v>-0.348682501502868</v>
+        <v>-0.34868250150286834</v>
       </c>
       <c r="I3">
-        <v>-0.39557313990100301</v>
+        <v>-0.39557313990100312</v>
       </c>
       <c r="J3">
-        <v>-0.43947966166281999</v>
+        <v>-0.43947966166282026</v>
       </c>
       <c r="K3">
-        <v>-0.48050818719138499</v>
+        <v>-0.48050818719138488</v>
       </c>
       <c r="L3">
-        <v>-0.518772776300643</v>
+        <v>-0.51877277630064256</v>
       </c>
       <c r="M3">
-        <v>-0.55439248884105397</v>
+        <v>-0.5543924888410543</v>
       </c>
       <c r="N3">
-        <v>-0.58749109269399202</v>
+        <v>-0.58749109269399247</v>
       </c>
       <c r="O3">
-        <v>-0.61819440817155102</v>
+        <v>-0.61819440817155125</v>
       </c>
       <c r="P3">
-        <v>-0.64663001510546503</v>
+        <v>-0.64663001510546536</v>
       </c>
       <c r="Q3">
-        <v>-0.67292497708064203</v>
+        <v>-0.67292497708064236</v>
       </c>
       <c r="R3">
-        <v>-0.69720564927320205</v>
+        <v>-0.69720564927320228</v>
       </c>
       <c r="S3">
-        <v>-0.71959582449747805</v>
+        <v>-0.7195958244974785</v>
       </c>
       <c r="T3">
-        <v>-0.74021669209143404</v>
+        <v>-0.74021669209143426</v>
       </c>
       <c r="U3">
-        <v>-0.75918540073754703</v>
+        <v>-0.75918540073754714</v>
       </c>
       <c r="V3">
-        <v>-0.77661514458710701</v>
+        <v>-0.77661514458710668</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1098,61 +1098,61 @@
         <v>-6.5317686884939705E-2</v>
       </c>
       <c r="D5">
-        <v>-0.127306224205471</v>
+        <v>-0.12730622420547094</v>
       </c>
       <c r="E5">
-        <v>-0.18600011036463401</v>
+        <v>-0.18600011036463399</v>
       </c>
       <c r="F5">
-        <v>-0.24144911754276099</v>
+        <v>-0.24144911754276149</v>
       </c>
       <c r="G5">
-        <v>-0.29371569223236299</v>
+        <v>-0.29371569223236316</v>
       </c>
       <c r="H5">
-        <v>-0.34287562815462802</v>
+        <v>-0.3428756281546278</v>
       </c>
       <c r="I5">
-        <v>-0.389015142954661</v>
+        <v>-0.38901514295466061</v>
       </c>
       <c r="J5">
-        <v>-0.43223104616768299</v>
+        <v>-0.4322310461676831</v>
       </c>
       <c r="K5">
-        <v>-0.47262779275896599</v>
+        <v>-0.47262779275896638</v>
       </c>
       <c r="L5">
-        <v>-0.51031733469511598</v>
+        <v>-0.51031733469511609</v>
       </c>
       <c r="M5">
-        <v>-0.545416314817327</v>
+        <v>-0.54541631481732744</v>
       </c>
       <c r="N5">
         <v>-0.57804578081398506</v>
       </c>
       <c r="O5">
-        <v>-0.60832865445372797</v>
+        <v>-0.60832865445372786</v>
       </c>
       <c r="P5">
-        <v>-0.63638945048538498</v>
+        <v>-0.63638945048538487</v>
       </c>
       <c r="Q5">
-        <v>-0.66235210967831704</v>
+        <v>-0.66235210967831681</v>
       </c>
       <c r="R5">
-        <v>-0.68633981654893805</v>
+        <v>-0.68633981654893794</v>
       </c>
       <c r="S5">
-        <v>-0.70847323406799501</v>
+        <v>-0.70847323406799489</v>
       </c>
       <c r="T5">
-        <v>-0.72887046620313101</v>
+        <v>-0.7288704662031309</v>
       </c>
       <c r="U5">
-        <v>-0.74764568845676205</v>
+        <v>-0.7476456884567616</v>
       </c>
       <c r="V5">
-        <v>-0.76490923148694001</v>
+        <v>-0.76490923148693968</v>
       </c>
     </row>
   </sheetData>
@@ -1192,10 +1192,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525899E-17</v>
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>1.35973995551052E-16</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762999E-17</v>
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1292,10 +1292,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525899E-17</v>
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>1.35973995551052E-16</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762999E-17</v>
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.102922765432781</v>
+        <v>0.10292276543278124</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.110892014789902</v>
+        <v>0.1108920147899017</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.43412222889076002</v>
+        <v>0.43412222889076013</v>
       </c>
       <c r="E4">
-        <v>0.28122076702034399</v>
+        <v>0.28122076702034365</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1449,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.32423254717519601</v>
+        <v>-0.32423254717519595</v>
       </c>
       <c r="E5">
-        <v>0.142880199684081</v>
+        <v>0.14288019968408103</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +1483,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>1.0116368040068701E-2</v>
+        <v>1.0116368040068659E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1491,7 +1491,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>6.9329810019760907E-2</v>
+        <v>6.9329810019760921E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1499,7 +1499,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1.2133358649639599E-33</v>
+        <v>1.2133358649639586E-33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1531,10 +1531,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>3.2430180147843398E-3</v>
+        <v>3.2430180147843416E-3</v>
       </c>
       <c r="C8">
-        <v>6.4860360295686797E-3</v>
+        <v>6.4860360295686832E-3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1542,10 +1542,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>1.2342166571236101E-3</v>
+        <v>1.2342166571236081E-3</v>
       </c>
       <c r="C9">
-        <v>2.4684333142472202E-3</v>
+        <v>2.4684333142472163E-3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1553,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>2.7318546659654899E-2</v>
+        <v>2.7318546659654851E-2</v>
       </c>
       <c r="C10">
-        <v>2.7318546659654899E-2</v>
+        <v>2.7318546659654851E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1564,10 +1564,10 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>1.7730477951985901E-2</v>
+        <v>1.7730477951985856E-2</v>
       </c>
       <c r="C11">
-        <v>6.0844117181188401E-2</v>
+        <v>6.0844117181188387E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1711,7 +1711,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -1763,40 +1763,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="10">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="D2" s="11">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="12">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="13">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="G2" s="14">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="15">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="16">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="J2" s="17">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="18">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="19">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="M2" s="20">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1804,40 +1804,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="10">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="D3" s="11">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="12">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="13">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="G3" s="14">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="15">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="16">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="J3" s="17">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="18">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="19">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="M3" s="20">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1845,40 +1845,40 @@
         <v>0</v>
       </c>
       <c r="B4" s="9">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="C4" s="10">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="D4" s="11">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="E4" s="12">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="F4" s="13">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="G4" s="14">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="H4" s="15">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="I4" s="16">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="J4" s="17">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="K4" s="18">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="L4" s="19">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="M4" s="20">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1886,40 +1886,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="C5" s="10">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="D5" s="11">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="E5" s="12">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="F5" s="13">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="G5" s="14">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="H5" s="15">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="I5" s="16">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="J5" s="17">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="K5" s="18">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="L5" s="19">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="M5" s="20">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1962,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -2015,40 +2015,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="D2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="G2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="J2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="M2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2056,40 +2056,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="D3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="G3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="J3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="M3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2138,40 +2138,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="C5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="D5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="E5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="F5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="G5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="H5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="I5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="K5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
       <c r="L5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
       <c r="M5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2505,7 +2505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
@@ -2660,7 +2660,7 @@
         <v>0.2</v>
       </c>
       <c r="E16">
-        <v>0.3</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="F16">
         <v>0.4</v>
@@ -2669,10 +2669,10 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>0.6</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I16">
-        <v>0.7</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="J16">
         <v>0.8</v>
@@ -2687,13 +2687,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16">
-        <v>1.2</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="O16">
         <v>1.3</v>
       </c>
       <c r="P16">
-        <v>1.4</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="Q16">
         <v>1.5</v>
@@ -2702,13 +2702,13 @@
         <v>1.6</v>
       </c>
       <c r="S16">
-        <v>1.7</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="T16">
         <v>1.8</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="V16">
         <v>2</v>
@@ -2870,64 +2870,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.10499680114134401</v>
+        <v>-0.10499680114134405</v>
       </c>
       <c r="D2">
-        <v>-0.207207848936133</v>
+        <v>-0.20720784893613309</v>
       </c>
       <c r="E2">
-        <v>-0.30651031034730603</v>
+        <v>-0.30651031034730569</v>
       </c>
       <c r="F2">
-        <v>-0.40278971292820498</v>
+        <v>-0.4027897129282047</v>
       </c>
       <c r="G2">
-        <v>-0.49593842425359602</v>
+        <v>-0.49593842425359613</v>
       </c>
       <c r="H2">
-        <v>-0.58586071686060104</v>
+        <v>-0.58586071686060093</v>
       </c>
       <c r="I2">
-        <v>-0.67247110735599402</v>
+        <v>-0.6724711073559938</v>
       </c>
       <c r="J2">
-        <v>-0.75569898352432796</v>
+        <v>-0.7556989835243284</v>
       </c>
       <c r="K2">
-        <v>-0.83548685267835998</v>
+        <v>-0.83548685267835976</v>
       </c>
       <c r="L2">
-        <v>-0.91179431508715703</v>
+        <v>-0.9117943150871568</v>
       </c>
       <c r="M2">
-        <v>-0.98459604371715903</v>
+        <v>-0.98459604371715892</v>
       </c>
       <c r="N2">
         <v>-1.0538849363366101</v>
       </c>
       <c r="O2">
-        <v>-1.11966971062555</v>
+        <v>-1.119669710625546</v>
       </c>
       <c r="P2">
-        <v>-1.18197715611545</v>
+        <v>-1.1819771561154517</v>
       </c>
       <c r="Q2">
-        <v>-1.24084932166086</v>
+        <v>-1.2408493216608585</v>
       </c>
       <c r="R2">
-        <v>-1.29634489749344</v>
+        <v>-1.2963448974934371</v>
       </c>
       <c r="S2">
-        <v>-1.3485360714575101</v>
+        <v>-1.3485360714575068</v>
       </c>
       <c r="T2">
-        <v>-1.39750917271026</v>
+        <v>-1.3975091727102575</v>
       </c>
       <c r="U2">
-        <v>-1.44336135158093</v>
+        <v>-1.4433613515809292</v>
       </c>
       <c r="V2">
-        <v>-1.4862005986512099</v>
+        <v>-1.4862005986512081</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2938,64 +2938,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.6437838926840603E-2</v>
+        <v>-6.6437838926840631E-2</v>
       </c>
       <c r="D3">
-        <v>-0.129487254298154</v>
+        <v>-0.12948725429815433</v>
       </c>
       <c r="E3">
-        <v>-0.18918102408759399</v>
+        <v>-0.18918102408759441</v>
       </c>
       <c r="F3">
-        <v>-0.24556785743665199</v>
+        <v>-0.24556785743665169</v>
       </c>
       <c r="G3">
-        <v>-0.298709703319334</v>
+        <v>-0.29870970331933355</v>
       </c>
       <c r="H3">
-        <v>-0.348682501502868</v>
+        <v>-0.34868250150286834</v>
       </c>
       <c r="I3">
-        <v>-0.39557313990100301</v>
+        <v>-0.39557313990100312</v>
       </c>
       <c r="J3">
-        <v>-0.43947966166281999</v>
+        <v>-0.43947966166282026</v>
       </c>
       <c r="K3">
-        <v>-0.48050818719138499</v>
+        <v>-0.48050818719138488</v>
       </c>
       <c r="L3">
-        <v>-0.518772776300643</v>
+        <v>-0.51877277630064256</v>
       </c>
       <c r="M3">
-        <v>-0.55439248884105397</v>
+        <v>-0.5543924888410543</v>
       </c>
       <c r="N3">
-        <v>-0.58749109269399202</v>
+        <v>-0.58749109269399247</v>
       </c>
       <c r="O3">
-        <v>-0.61819440817155102</v>
+        <v>-0.61819440817155125</v>
       </c>
       <c r="P3">
-        <v>-0.64663001510546503</v>
+        <v>-0.64663001510546536</v>
       </c>
       <c r="Q3">
-        <v>-0.67292497708064203</v>
+        <v>-0.67292497708064236</v>
       </c>
       <c r="R3">
-        <v>-0.69720564927320205</v>
+        <v>-0.69720564927320228</v>
       </c>
       <c r="S3">
-        <v>-0.71959582449747805</v>
+        <v>-0.7195958244974785</v>
       </c>
       <c r="T3">
-        <v>-0.74021669209143404</v>
+        <v>-0.74021669209143426</v>
       </c>
       <c r="U3">
-        <v>-0.75918540073754703</v>
+        <v>-0.75918540073754714</v>
       </c>
       <c r="V3">
-        <v>-0.77661514458710701</v>
+        <v>-0.77661514458710668</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -3006,64 +3006,64 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.63460210987999E-2</v>
+        <v>4.6346021098799928E-2</v>
       </c>
       <c r="D4">
-        <v>8.7006324589081294E-2</v>
+        <v>8.7006324589081308E-2</v>
       </c>
       <c r="E4">
-        <v>0.12280209964574</v>
+        <v>0.1228020996457404</v>
       </c>
       <c r="F4">
-        <v>0.15440853337386501</v>
+        <v>0.15440853337386484</v>
       </c>
       <c r="G4">
-        <v>0.18238587913106399</v>
+        <v>0.18238587913106419</v>
       </c>
       <c r="H4">
-        <v>0.20720436606925</v>
+        <v>0.20720436606925041</v>
       </c>
       <c r="I4">
-        <v>0.22926112057175899</v>
+        <v>0.22926112057175885</v>
       </c>
       <c r="J4">
-        <v>0.24889472875504501</v>
+        <v>0.24889472875504526</v>
       </c>
       <c r="K4">
-        <v>0.26639505629069399</v>
+        <v>0.26639505629069371</v>
       </c>
       <c r="L4">
-        <v>0.28201227761217501</v>
+        <v>0.28201227761217529</v>
       </c>
       <c r="M4">
-        <v>0.29596285635365699</v>
+        <v>0.29596285635365738</v>
       </c>
       <c r="N4">
-        <v>0.30843541906345401</v>
+        <v>0.30843541906345406</v>
       </c>
       <c r="O4">
-        <v>0.31959454590144598</v>
+        <v>0.31959454590144643</v>
       </c>
       <c r="P4">
-        <v>0.32958474622781198</v>
+        <v>0.32958474622781209</v>
       </c>
       <c r="Q4">
         <v>0.33853294407027701</v>
       </c>
       <c r="R4">
-        <v>0.34655125927695801</v>
+        <v>0.34655125927695807</v>
       </c>
       <c r="S4">
-        <v>0.35373868550397503</v>
+        <v>0.3537386855039748</v>
       </c>
       <c r="T4">
-        <v>0.36018309016758698</v>
+        <v>0.36018309016758654</v>
       </c>
       <c r="U4">
-        <v>0.36596237665265802</v>
+        <v>0.36596237665265818</v>
       </c>
       <c r="V4">
-        <v>0.371145944638199</v>
+        <v>0.37114594463819872</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -3074,64 +3074,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-7.7198644113940396E-2</v>
+        <v>-7.7198644113940437E-2</v>
       </c>
       <c r="D5">
-        <v>-0.151447491208626</v>
+        <v>-0.15144749120862552</v>
       </c>
       <c r="E5">
-        <v>-0.22270776061202199</v>
+        <v>-0.22270776061202222</v>
       </c>
       <c r="F5">
-        <v>-0.29095387354581898</v>
+        <v>-0.29095387354581909</v>
       </c>
       <c r="G5">
-        <v>-0.35617226338517</v>
+        <v>-0.35617226338517016</v>
       </c>
       <c r="H5">
-        <v>-0.41836325216185699</v>
+        <v>-0.41836325216185655</v>
       </c>
       <c r="I5">
-        <v>-0.47753943214218803</v>
+        <v>-0.47753943214218847</v>
       </c>
       <c r="J5">
-        <v>-0.53372695620192001</v>
+        <v>-0.53372695620191957</v>
       </c>
       <c r="K5">
-        <v>-0.58696362418728998</v>
+        <v>-0.58696362418728965</v>
       </c>
       <c r="L5">
-        <v>-0.63729962387672801</v>
+        <v>-0.63729962387672812</v>
       </c>
       <c r="M5">
-        <v>-0.68479538668556394</v>
+        <v>-0.68479538668556383</v>
       </c>
       <c r="N5">
-        <v>-0.72952187117122202</v>
+        <v>-0.72952187117122247</v>
       </c>
       <c r="O5">
-        <v>-0.77155829430177003</v>
+        <v>-0.77155829430177014</v>
       </c>
       <c r="P5">
-        <v>-0.81099208502447295</v>
+        <v>-0.81099208502447273</v>
       </c>
       <c r="Q5">
-        <v>-0.84791661613563396</v>
+        <v>-0.84791661613563407</v>
       </c>
       <c r="R5">
-        <v>-0.88243096588400005</v>
+        <v>-0.88243096588399994</v>
       </c>
       <c r="S5">
-        <v>-0.91463777010231495</v>
+        <v>-0.91463777010231506</v>
       </c>
       <c r="T5">
-        <v>-0.94464291716798998</v>
+        <v>-0.94464291716799031</v>
       </c>
       <c r="U5">
-        <v>-0.97255361571344501</v>
+        <v>-0.97255361571344512</v>
       </c>
       <c r="V5">
-        <v>-0.99847808195875498</v>
+        <v>-0.9984780819587552</v>
       </c>
     </row>
   </sheetData>
